--- a/RMI/RMI/media/Reporte/Eventos_Noviembre_-_Guaca.xlsx
+++ b/RMI/RMI/media/Reporte/Eventos_Noviembre_-_Guaca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SENA\Instructor Líder - Area Actividad Fisica - Deporte\9. Eventos Sofia Plus 2017 - Líder\Eventos sofia plus - 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SENA\Instructor Líder - Area Actividad Fisica - Deporte\9. Eventos Sofia Plus 2017 - Líder\Eventos sofia plus - 2017\Noviembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="RMI - ENERO 2017" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -255,9 +255,6 @@
     <t>REALIZAR EVENTOS DEPORTIVOS Y RECREATIVOS SEGÚN PLAN DE ACCIÓN ESTABLECIDO, RECURSOS Y ESPACIOS FÍSICOS REQUERIDOS DE ACUERDO CON LAS NECESIDADES DE LOS USUARIOS Y POLÍTICAS ORGANIZACIONALES</t>
   </si>
   <si>
-    <t>18:00 a 22:01</t>
-  </si>
-  <si>
     <t>07:00 a 13:00</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>IDENTIFICA LAS CARACTERISTICAS Y NECESIDADES DE LA ACTIVIDAD FISICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICA LAS CARACTERISTICAS Y NECESIDADES DE LA ACTIVIDAD FISICA  </t>
   </si>
   <si>
     <t>AUTOMOTRIZ 3</t>
@@ -344,6 +338,18 @@
   </si>
   <si>
     <t>16:15 a 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El resultado de aprendizaje  no se encuentra en sofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDENTIFICAR LOS PARÁMETROS DE LA ACTIVIDAD FÍSICA DE ACUERDO CON LA EVIDENCIA TÉCNICO-CIENTÍFICA VIGENTE Y SU IMPACTO EN LA SALUD DE LAS PERSONAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los días 21 y 23 se cruzan con el instructor Jesus David Barajas </t>
+  </si>
+  <si>
+    <t>16:00 a 19:00</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,7 +1886,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2059,13 +2071,16 @@
     <xf numFmtId="0" fontId="34" fillId="15" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,134 +2095,38 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2221,149 +2140,165 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2376,6 +2311,137 @@
     <xf numFmtId="0" fontId="41" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2426,287 +2492,263 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="19" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2750,7 +2792,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvPr id="2050" name="Rectangle 2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2793,7 +2841,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPr id="3" name="2 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3138,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31:S36"/>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3157,7 +3211,8 @@
     <col min="17" max="17" width="14.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.85546875" style="3" customWidth="1"/>
-    <col min="20" max="26" width="10" style="3" customWidth="1"/>
+    <col min="20" max="25" width="10" style="3" customWidth="1"/>
+    <col min="26" max="26" width="18" style="3" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
     <col min="28" max="28" width="7.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="19.5703125" style="3" customWidth="1"/>
@@ -3188,35 +3243,35 @@
       <c r="BA1" s="4"/>
     </row>
     <row r="2" spans="1:53" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="215" t="s">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
       <c r="Z2"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
@@ -3247,39 +3302,39 @@
       <c r="BA2" s="4"/>
     </row>
     <row r="3" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="207"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219" t="s">
+      <c r="A3" s="223"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="228" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="220" t="s">
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="220" t="s">
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="220"/>
+      <c r="Y3" s="190"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
@@ -3310,37 +3365,37 @@
       <c r="BA3" s="4"/>
     </row>
     <row r="4" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="207"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="227" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="221" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
-      <c r="S4" s="222"/>
-      <c r="T4" s="222"/>
-      <c r="U4" s="222"/>
-      <c r="V4" s="222"/>
-      <c r="W4" s="223"/>
-      <c r="X4" s="197" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="198"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="197" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="191" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="192"/>
+      <c r="U4" s="192"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="214"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
@@ -3371,37 +3426,37 @@
       <c r="BA4" s="4"/>
     </row>
     <row r="5" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="207"/>
-      <c r="B5" s="218" t="s">
+      <c r="A5" s="223"/>
+      <c r="B5" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="228" t="s">
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
-      <c r="M5" s="229"/>
-      <c r="N5" s="229"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="224" t="s">
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="226"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="200"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
+      <c r="W5" s="196"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="216"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
@@ -3432,35 +3487,35 @@
       <c r="BA5" s="4"/>
     </row>
     <row r="6" spans="1:53" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="207"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="227">
+      <c r="A6" s="223"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="197">
         <v>10301773</v>
       </c>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="227">
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="197">
         <v>3006046622</v>
       </c>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="223"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="202"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="218"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
@@ -3491,31 +3546,31 @@
       <c r="BA6" s="4"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="207"/>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="232"/>
-      <c r="N7" s="232"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="232"/>
-      <c r="S7" s="232"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="232"/>
-      <c r="V7" s="232"/>
-      <c r="W7" s="232"/>
-      <c r="X7" s="232"/>
-      <c r="Y7" s="233"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="202"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="203"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -3561,15 +3616,15 @@
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="196"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="5"/>
@@ -3601,33 +3656,33 @@
       <c r="BA8" s="4"/>
     </row>
     <row r="9" spans="1:53" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="205"/>
+      <c r="A9" s="219" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="220"/>
+      <c r="X9" s="220"/>
+      <c r="Y9" s="221"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
@@ -3658,69 +3713,69 @@
       <c r="BA9" s="4"/>
     </row>
     <row r="10" spans="1:53" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="211" t="s">
+      <c r="A10" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="213" t="s">
+      <c r="D10" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="209" t="s">
+      <c r="H10" s="290"/>
+      <c r="I10" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="226"/>
+      <c r="M10" s="226"/>
+      <c r="N10" s="226"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="235" t="s">
+      <c r="P10" s="297" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="163" t="s">
+      <c r="Q10" s="295" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="163" t="s">
+      <c r="R10" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="130" t="s">
+      <c r="S10" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="124" t="s">
+      <c r="T10" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="126"/>
+      <c r="U10" s="284"/>
+      <c r="V10" s="284"/>
+      <c r="W10" s="284"/>
+      <c r="X10" s="284"/>
+      <c r="Y10" s="285"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="237" t="s">
+      <c r="AA10" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="239"/>
-      <c r="AD10" s="261" t="s">
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="AE10" s="262"/>
-      <c r="AF10" s="262"/>
-      <c r="AG10" s="262"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -3743,14 +3798,14 @@
       <c r="BA10" s="4"/>
     </row>
     <row r="11" spans="1:53" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="212"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="A11" s="228"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="291"/>
+      <c r="H11" s="292"/>
       <c r="I11" s="10" t="s">
         <v>13</v>
       </c>
@@ -3772,24 +3827,24 @@
       <c r="O11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="129"/>
+      <c r="P11" s="298"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="230"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="287"/>
+      <c r="V11" s="287"/>
+      <c r="W11" s="287"/>
+      <c r="X11" s="287"/>
+      <c r="Y11" s="288"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="240"/>
-      <c r="AB11" s="241"/>
-      <c r="AC11" s="242"/>
-      <c r="AD11" s="263"/>
-      <c r="AE11" s="264"/>
-      <c r="AF11" s="264"/>
-      <c r="AG11" s="264"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="150"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
@@ -3850,9 +3905,9 @@
         <v>17</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="258"/>
-      <c r="AB12" s="259"/>
-      <c r="AC12" s="260"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="146"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="18"/>
@@ -3879,49 +3934,49 @@
       <c r="BA12" s="4"/>
     </row>
     <row r="13" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117">
+      <c r="A13" s="231">
         <v>1505783</v>
       </c>
-      <c r="B13" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="118">
+      <c r="C13" s="234" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="185">
         <v>45</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="234" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="136">
+      <c r="G13" s="103">
         <v>31</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="151" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="110">
+      <c r="H13" s="104"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="186">
         <v>37</v>
       </c>
-      <c r="R13" s="110">
-        <v>8</v>
-      </c>
-      <c r="S13" s="110">
+      <c r="R13" s="186">
+        <v>6</v>
+      </c>
+      <c r="S13" s="186">
         <v>8</v>
       </c>
       <c r="T13" s="76"/>
@@ -3939,14 +3994,14 @@
         <v>4</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="243"/>
-      <c r="AB13" s="244"/>
-      <c r="AC13" s="245"/>
-      <c r="AD13" s="115" t="s">
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="116"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="121"/>
       <c r="AG13" s="20"/>
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
@@ -3970,25 +4025,25 @@
       <c r="BA13" s="4"/>
     </row>
     <row r="14" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
       <c r="T14" s="77">
         <v>6</v>
       </c>
@@ -4008,9 +4063,9 @@
         <v>11</v>
       </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="243"/>
-      <c r="AB14" s="244"/>
-      <c r="AC14" s="245"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="131"/>
       <c r="AD14" s="61" t="s">
         <v>49</v>
       </c>
@@ -4043,25 +4098,25 @@
       <c r="BA14" s="4"/>
     </row>
     <row r="15" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
+      <c r="A15" s="231"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
       <c r="T15" s="77">
         <v>13</v>
       </c>
@@ -4081,16 +4136,16 @@
         <v>18</v>
       </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="243"/>
-      <c r="AB15" s="244"/>
-      <c r="AC15" s="245"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="131"/>
       <c r="AD15" s="62"/>
       <c r="AE15" s="26"/>
       <c r="AF15" s="27">
         <f>AD15*AE15</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="113">
+      <c r="AG15" s="122">
         <f>AF15+AF16</f>
         <v>0</v>
       </c>
@@ -4116,25 +4171,25 @@
       <c r="BA15" s="4"/>
     </row>
     <row r="16" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
+      <c r="A16" s="231"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="187"/>
       <c r="T16" s="76">
         <v>20</v>
       </c>
@@ -4154,16 +4209,16 @@
         <v>25</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="243"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="245"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="131"/>
       <c r="AD16" s="62"/>
       <c r="AE16" s="26"/>
       <c r="AF16" s="27">
         <f>AD16*AE16</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="114"/>
+      <c r="AG16" s="123"/>
       <c r="AH16" s="21"/>
       <c r="AI16" s="21"/>
       <c r="AJ16" s="21"/>
@@ -4186,25 +4241,25 @@
       <c r="BA16" s="4"/>
     </row>
     <row r="17" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="187"/>
       <c r="T17" s="76">
         <v>27</v>
       </c>
@@ -4220,9 +4275,9 @@
       <c r="X17" s="80"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="243"/>
-      <c r="AB17" s="244"/>
-      <c r="AC17" s="245"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="131"/>
       <c r="AD17" s="63"/>
       <c r="AE17" s="28"/>
       <c r="AF17" s="28">
@@ -4252,25 +4307,25 @@
       <c r="BA17" s="4"/>
     </row>
     <row r="18" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
+      <c r="A18" s="231"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="282"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="238"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -4278,9 +4333,9 @@
       <c r="X18" s="76"/>
       <c r="Y18" s="76"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="243"/>
-      <c r="AB18" s="244"/>
-      <c r="AC18" s="245"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="131"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
@@ -4307,49 +4362,49 @@
       <c r="BA18" s="4"/>
     </row>
     <row r="19" spans="1:53" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84">
+      <c r="A19" s="85">
         <v>1505764</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="94">
+        <v>45</v>
+      </c>
+      <c r="E19" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="283">
-        <v>45</v>
-      </c>
-      <c r="E19" s="286" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="136">
+      <c r="G19" s="103">
         <v>30</v>
       </c>
-      <c r="H19" s="137"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="295"/>
-      <c r="K19" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="151" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="275">
+      <c r="H19" s="104"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="109"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="177">
         <v>37</v>
       </c>
-      <c r="R19" s="275">
-        <v>7.3</v>
-      </c>
-      <c r="S19" s="278">
+      <c r="R19" s="177">
+        <v>6</v>
+      </c>
+      <c r="S19" s="180">
         <v>7.3</v>
       </c>
       <c r="T19" s="72" t="s">
@@ -4400,25 +4455,25 @@
       <c r="BA19" s="4"/>
     </row>
     <row r="20" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="281"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="293"/>
-      <c r="J20" s="296"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="272"/>
-      <c r="O20" s="272"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="276"/>
-      <c r="R20" s="276"/>
-      <c r="S20" s="279"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="181"/>
       <c r="T20" s="76"/>
       <c r="U20" s="80"/>
       <c r="V20" s="79">
@@ -4463,25 +4518,25 @@
       <c r="BA20" s="4"/>
     </row>
     <row r="21" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="289"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="296"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="272"/>
-      <c r="O21" s="272"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="276"/>
-      <c r="R21" s="276"/>
-      <c r="S21" s="279"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="181"/>
       <c r="T21" s="77">
         <v>6</v>
       </c>
@@ -4530,25 +4585,25 @@
       <c r="BA21" s="4"/>
     </row>
     <row r="22" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="281"/>
-      <c r="D22" s="284"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="293"/>
-      <c r="J22" s="296"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="272"/>
-      <c r="O22" s="272"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="276"/>
-      <c r="R22" s="276"/>
-      <c r="S22" s="279"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="181"/>
       <c r="T22" s="77">
         <v>13</v>
       </c>
@@ -4597,25 +4652,25 @@
       <c r="BA22" s="4"/>
     </row>
     <row r="23" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="281"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="296"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="272"/>
-      <c r="O23" s="272"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="276"/>
-      <c r="R23" s="276"/>
-      <c r="S23" s="279"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="181"/>
       <c r="T23" s="76">
         <v>20</v>
       </c>
@@ -4664,25 +4719,25 @@
       <c r="BA23" s="4"/>
     </row>
     <row r="24" spans="1:53" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="291"/>
-      <c r="H24" s="292"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="297"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="273"/>
-      <c r="O24" s="273"/>
-      <c r="P24" s="274"/>
-      <c r="Q24" s="277"/>
-      <c r="R24" s="277"/>
-      <c r="S24" s="280"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="179"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="182"/>
       <c r="T24" s="76">
         <v>27</v>
       </c>
@@ -4727,54 +4782,56 @@
       <c r="BA24" s="4"/>
     </row>
     <row r="25" spans="1:53" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84">
+      <c r="A25" s="85">
         <v>1505764</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="88">
+        <v>142</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="302">
+        <v>30</v>
+      </c>
+      <c r="H25" s="303"/>
+      <c r="I25" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="87">
-        <v>142</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="93">
-        <v>30</v>
-      </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q25" s="165">
+      <c r="Q25" s="240">
         <v>0</v>
       </c>
-      <c r="R25" s="165">
+      <c r="R25" s="240">
         <v>78</v>
       </c>
-      <c r="S25" s="168">
-        <v>78</v>
+      <c r="S25" s="243">
+        <v>102</v>
       </c>
       <c r="T25" s="72" t="s">
         <v>13</v>
@@ -4795,14 +4852,14 @@
         <v>17</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="255"/>
-      <c r="AB25" s="256"/>
-      <c r="AC25" s="257"/>
-      <c r="AD25" s="265" t="s">
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="142"/>
+      <c r="AC25" s="143"/>
+      <c r="AD25" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="AE25" s="115"/>
-      <c r="AF25" s="116"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="121"/>
       <c r="AG25" s="20"/>
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
@@ -4826,25 +4883,25 @@
       <c r="BA25" s="4"/>
     </row>
     <row r="26" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="85"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="169"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="300"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="300"/>
+      <c r="F26" s="300"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="244"/>
       <c r="T26" s="76"/>
       <c r="U26" s="80"/>
       <c r="V26" s="80">
@@ -4860,9 +4917,11 @@
         <v>4</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="246"/>
-      <c r="AB26" s="247"/>
-      <c r="AC26" s="248"/>
+      <c r="AA26" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB26" s="133"/>
+      <c r="AC26" s="134"/>
       <c r="AD26" s="61" t="s">
         <v>49</v>
       </c>
@@ -4895,25 +4954,25 @@
       <c r="BA26" s="4"/>
     </row>
     <row r="27" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="169"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="304"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="244"/>
       <c r="T27" s="77">
         <v>6</v>
       </c>
@@ -4933,16 +4992,16 @@
         <v>11</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="249"/>
-      <c r="AB27" s="250"/>
-      <c r="AC27" s="251"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="137"/>
       <c r="AD27" s="62"/>
       <c r="AE27" s="26"/>
       <c r="AF27" s="27">
         <f>AD27*AE27</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="113">
+      <c r="AG27" s="122">
         <f>AF27+AF28</f>
         <v>0</v>
       </c>
@@ -4968,25 +5027,25 @@
       <c r="BA27" s="4"/>
     </row>
     <row r="28" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="169"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="300"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="300"/>
+      <c r="F28" s="300"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="244"/>
       <c r="T28" s="77">
         <v>13</v>
       </c>
@@ -5006,16 +5065,16 @@
         <v>18</v>
       </c>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="249"/>
-      <c r="AB28" s="250"/>
-      <c r="AC28" s="251"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="137"/>
       <c r="AD28" s="62"/>
       <c r="AE28" s="26"/>
       <c r="AF28" s="27">
         <f>AD28*AE28</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="114"/>
+      <c r="AG28" s="123"/>
       <c r="AH28" s="21"/>
       <c r="AI28" s="21"/>
       <c r="AJ28" s="21"/>
@@ -5038,26 +5097,26 @@
       <c r="BA28" s="4"/>
     </row>
     <row r="29" spans="1:53" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="169"/>
-      <c r="T29" s="76">
+      <c r="A29" s="86"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="300"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="300"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="241"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="244"/>
+      <c r="T29" s="79">
         <v>20</v>
       </c>
       <c r="U29" s="79">
@@ -5076,9 +5135,9 @@
         <v>25</v>
       </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="249"/>
-      <c r="AB29" s="250"/>
-      <c r="AC29" s="251"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="137"/>
       <c r="AD29" s="63"/>
       <c r="AE29" s="28"/>
       <c r="AF29" s="28">
@@ -5107,44 +5166,44 @@
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
     </row>
-    <row r="30" spans="1:53" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="167"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="76">
+    <row r="30" spans="1:53" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="307"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="242"/>
+      <c r="R30" s="242"/>
+      <c r="S30" s="245"/>
+      <c r="T30" s="79">
         <v>27</v>
       </c>
-      <c r="U30" s="80">
+      <c r="U30" s="79">
         <v>28</v>
       </c>
-      <c r="V30" s="80">
+      <c r="V30" s="79">
         <v>29</v>
       </c>
-      <c r="W30" s="80">
+      <c r="W30" s="79">
         <v>30</v>
       </c>
       <c r="X30" s="80"/>
       <c r="Y30" s="76"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="252"/>
-      <c r="AB30" s="253"/>
-      <c r="AC30" s="254"/>
+      <c r="AA30" s="138"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="140"/>
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
@@ -5171,53 +5230,53 @@
       <c r="BA30" s="4"/>
     </row>
     <row r="31" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="137">
+      <c r="A31" s="270">
         <v>1458760</v>
       </c>
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="151" t="s">
+      <c r="C31" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="156">
+      <c r="D31" s="273">
         <v>80</v>
       </c>
-      <c r="E31" s="151" t="s">
+      <c r="E31" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="151" t="s">
+      <c r="F31" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="118">
+      <c r="G31" s="185">
         <v>20</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="160"/>
-      <c r="K31" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="L31" s="160"/>
-      <c r="M31" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="120" t="s">
+      <c r="H31" s="185"/>
+      <c r="I31" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="277"/>
+      <c r="K31" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="277"/>
+      <c r="M31" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" s="183"/>
+      <c r="P31" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="O31" s="120"/>
-      <c r="P31" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q31" s="110">
+      <c r="Q31" s="186">
         <v>46</v>
       </c>
-      <c r="R31" s="110">
-        <v>19</v>
-      </c>
-      <c r="S31" s="110">
+      <c r="R31" s="186">
+        <v>17</v>
+      </c>
+      <c r="S31" s="186">
         <v>19</v>
       </c>
       <c r="T31" s="75" t="s">
@@ -5239,9 +5298,9 @@
         <v>17</v>
       </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="258"/>
-      <c r="AB31" s="259"/>
-      <c r="AC31" s="260"/>
+      <c r="AA31" s="144"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="146"/>
       <c r="AD31" s="31"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
@@ -5268,25 +5327,25 @@
       <c r="BA31" s="4"/>
     </row>
     <row r="32" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
+      <c r="A32" s="271"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="274"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="268"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="278"/>
+      <c r="K32" s="276"/>
+      <c r="L32" s="278"/>
+      <c r="M32" s="276"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
       <c r="V32" s="79">
@@ -5302,14 +5361,14 @@
         <v>4</v>
       </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="243"/>
-      <c r="AB32" s="244"/>
-      <c r="AC32" s="245"/>
-      <c r="AD32" s="115" t="s">
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="AE32" s="115"/>
-      <c r="AF32" s="116"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="121"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
@@ -5333,25 +5392,25 @@
       <c r="BA32" s="4"/>
     </row>
     <row r="33" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
+      <c r="A33" s="271"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="268"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="278"/>
+      <c r="K33" s="276"/>
+      <c r="L33" s="278"/>
+      <c r="M33" s="276"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="187"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
       <c r="T33" s="77">
         <v>6</v>
       </c>
@@ -5371,9 +5430,9 @@
         <v>11</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="243"/>
-      <c r="AB33" s="244"/>
-      <c r="AC33" s="245"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="131"/>
       <c r="AD33" s="61" t="s">
         <v>49</v>
       </c>
@@ -5406,25 +5465,25 @@
       <c r="BA33" s="4"/>
     </row>
     <row r="34" spans="1:73" s="36" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="268"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="278"/>
+      <c r="K34" s="276"/>
+      <c r="L34" s="278"/>
+      <c r="M34" s="276"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="187"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
       <c r="T34" s="77">
         <v>13</v>
       </c>
@@ -5444,16 +5503,16 @@
         <v>18</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="243"/>
-      <c r="AB34" s="244"/>
-      <c r="AC34" s="245"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="131"/>
       <c r="AD34" s="62"/>
       <c r="AE34" s="26"/>
       <c r="AF34" s="27">
         <f>AD34*AE34</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="113">
+      <c r="AG34" s="122">
         <f>AF34+AF35</f>
         <v>0</v>
       </c>
@@ -5499,25 +5558,25 @@
       <c r="BU34" s="35"/>
     </row>
     <row r="35" spans="1:73" s="36" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
+      <c r="A35" s="271"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="268"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="278"/>
+      <c r="K35" s="276"/>
+      <c r="L35" s="278"/>
+      <c r="M35" s="276"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
       <c r="T35" s="76">
         <v>20</v>
       </c>
@@ -5537,16 +5596,16 @@
         <v>25</v>
       </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="243"/>
-      <c r="AB35" s="244"/>
-      <c r="AC35" s="245"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="131"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="26"/>
       <c r="AF35" s="27">
         <f>AD35*AE35</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="114"/>
+      <c r="AG35" s="123"/>
       <c r="AH35" s="34"/>
       <c r="AI35" s="34"/>
       <c r="AJ35" s="34"/>
@@ -5589,25 +5648,25 @@
       <c r="BU35" s="35"/>
     </row>
     <row r="36" spans="1:73" s="36" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="141"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
+      <c r="A36" s="272"/>
+      <c r="B36" s="238"/>
+      <c r="C36" s="238"/>
+      <c r="D36" s="275"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="269"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="279"/>
+      <c r="K36" s="276"/>
+      <c r="L36" s="279"/>
+      <c r="M36" s="276"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="187"/>
+      <c r="R36" s="187"/>
+      <c r="S36" s="187"/>
       <c r="T36" s="76">
         <v>27</v>
       </c>
@@ -5623,9 +5682,9 @@
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="243"/>
-      <c r="AB36" s="244"/>
-      <c r="AC36" s="245"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="131"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="28"/>
       <c r="AF36" s="28">
@@ -5675,57 +5734,57 @@
       <c r="BU36" s="35"/>
     </row>
     <row r="37" spans="1:73" s="36" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="137">
+      <c r="A37" s="257">
         <v>1458760</v>
       </c>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="118">
+      <c r="C37" s="234" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="185">
         <v>108</v>
       </c>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="234" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="118">
+      <c r="G37" s="185">
         <v>20</v>
       </c>
-      <c r="H37" s="118"/>
-      <c r="I37" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="M37" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="120" t="s">
+      <c r="H37" s="185"/>
+      <c r="I37" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="277" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="277" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" s="280" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="120"/>
-      <c r="P37" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q37" s="110">
+      <c r="O37" s="183"/>
+      <c r="P37" s="185" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="186">
         <v>0</v>
       </c>
-      <c r="R37" s="110">
-        <v>47.5</v>
-      </c>
-      <c r="S37" s="110">
+      <c r="R37" s="186">
+        <v>38</v>
+      </c>
+      <c r="S37" s="186">
         <v>47.5</v>
       </c>
       <c r="T37" s="75" t="s">
@@ -5747,9 +5806,9 @@
         <v>17</v>
       </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="258"/>
-      <c r="AB37" s="259"/>
-      <c r="AC37" s="260"/>
+      <c r="AA37" s="144"/>
+      <c r="AB37" s="145"/>
+      <c r="AC37" s="146"/>
       <c r="AD37" s="37"/>
       <c r="AE37" s="37"/>
       <c r="AF37" s="37"/>
@@ -5796,25 +5855,25 @@
       <c r="BU37" s="35"/>
     </row>
     <row r="38" spans="1:73" s="36" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
+      <c r="A38" s="258"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="278"/>
+      <c r="K38" s="276"/>
+      <c r="L38" s="278"/>
+      <c r="M38" s="276"/>
+      <c r="N38" s="280"/>
+      <c r="O38" s="184"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="187"/>
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76">
@@ -5829,17 +5888,19 @@
       <c r="Y38" s="76">
         <v>4</v>
       </c>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="298" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB38" s="299"/>
-      <c r="AC38" s="300"/>
-      <c r="AD38" s="115" t="s">
+      <c r="Z38" s="308" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA38" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="153"/>
+      <c r="AD38" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="AE38" s="115"/>
-      <c r="AF38" s="116"/>
+      <c r="AE38" s="120"/>
+      <c r="AF38" s="121"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="34"/>
       <c r="AI38" s="34"/>
@@ -5883,25 +5944,25 @@
       <c r="BU38" s="35"/>
     </row>
     <row r="39" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="159"/>
-      <c r="L39" s="161"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
+      <c r="A39" s="258"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="278"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="278"/>
+      <c r="M39" s="276"/>
+      <c r="N39" s="280"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="187"/>
+      <c r="R39" s="187"/>
+      <c r="S39" s="187"/>
       <c r="T39" s="77">
         <v>6</v>
       </c>
@@ -5920,10 +5981,10 @@
       <c r="Y39" s="79">
         <v>11</v>
       </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="301"/>
-      <c r="AB39" s="302"/>
-      <c r="AC39" s="303"/>
+      <c r="Z39" s="309"/>
+      <c r="AA39" s="154"/>
+      <c r="AB39" s="155"/>
+      <c r="AC39" s="156"/>
       <c r="AD39" s="61" t="s">
         <v>49</v>
       </c>
@@ -5956,25 +6017,25 @@
       <c r="BA39" s="4"/>
     </row>
     <row r="40" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="161"/>
-      <c r="M40" s="159"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
+      <c r="A40" s="258"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="235"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="278"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="278"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="280"/>
+      <c r="O40" s="184"/>
+      <c r="P40" s="184"/>
+      <c r="Q40" s="187"/>
+      <c r="R40" s="187"/>
+      <c r="S40" s="187"/>
       <c r="T40" s="77">
         <v>13</v>
       </c>
@@ -5993,17 +6054,17 @@
       <c r="Y40" s="79">
         <v>18</v>
       </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="301"/>
-      <c r="AB40" s="302"/>
-      <c r="AC40" s="303"/>
+      <c r="Z40" s="309"/>
+      <c r="AA40" s="154"/>
+      <c r="AB40" s="155"/>
+      <c r="AC40" s="156"/>
       <c r="AD40" s="62"/>
       <c r="AE40" s="26"/>
       <c r="AF40" s="27">
         <f>AD40*AE40</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="113">
+      <c r="AG40" s="122">
         <f>AF40+AF41</f>
         <v>0</v>
       </c>
@@ -6029,35 +6090,35 @@
       <c r="BA40" s="4"/>
     </row>
     <row r="41" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="161"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
+      <c r="A41" s="258"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="278"/>
+      <c r="K41" s="276"/>
+      <c r="L41" s="278"/>
+      <c r="M41" s="276"/>
+      <c r="N41" s="280"/>
+      <c r="O41" s="184"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="187"/>
+      <c r="R41" s="187"/>
+      <c r="S41" s="187"/>
       <c r="T41" s="79">
         <v>20</v>
       </c>
-      <c r="U41" s="307">
+      <c r="U41" s="84">
         <v>21</v>
       </c>
       <c r="V41" s="79">
         <v>22</v>
       </c>
-      <c r="W41" s="307">
+      <c r="W41" s="84">
         <v>23</v>
       </c>
       <c r="X41" s="79">
@@ -6066,17 +6127,17 @@
       <c r="Y41" s="79">
         <v>25</v>
       </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="301"/>
-      <c r="AB41" s="302"/>
-      <c r="AC41" s="303"/>
+      <c r="Z41" s="309"/>
+      <c r="AA41" s="154"/>
+      <c r="AB41" s="155"/>
+      <c r="AC41" s="156"/>
       <c r="AD41" s="62"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="27">
         <f>AD41*AE41</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="114"/>
+      <c r="AG41" s="123"/>
       <c r="AH41" s="7"/>
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
@@ -6099,25 +6160,25 @@
       <c r="BA41" s="4"/>
     </row>
     <row r="42" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="141"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="162"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="159"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="238"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="184"/>
+      <c r="J42" s="279"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="279"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="280"/>
+      <c r="O42" s="184"/>
+      <c r="P42" s="184"/>
+      <c r="Q42" s="187"/>
+      <c r="R42" s="187"/>
+      <c r="S42" s="187"/>
       <c r="T42" s="79">
         <v>27</v>
       </c>
@@ -6132,10 +6193,10 @@
       </c>
       <c r="X42" s="76"/>
       <c r="Y42" s="76"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="304"/>
-      <c r="AB42" s="305"/>
-      <c r="AC42" s="306"/>
+      <c r="Z42" s="310"/>
+      <c r="AA42" s="157"/>
+      <c r="AB42" s="158"/>
+      <c r="AC42" s="159"/>
       <c r="AD42" s="63"/>
       <c r="AE42" s="28"/>
       <c r="AF42" s="28">
@@ -6165,80 +6226,80 @@
       <c r="BA42" s="4"/>
     </row>
     <row r="43" spans="1:73" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="145" t="s">
+      <c r="A43" s="263" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="191" t="s">
+      <c r="B43" s="264"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="264"/>
+      <c r="E43" s="264"/>
+      <c r="F43" s="264"/>
+      <c r="G43" s="264"/>
+      <c r="H43" s="264"/>
+      <c r="I43" s="264"/>
+      <c r="J43" s="264"/>
+      <c r="K43" s="264"/>
+      <c r="L43" s="264"/>
+      <c r="M43" s="264"/>
+      <c r="N43" s="264"/>
+      <c r="O43" s="264"/>
+      <c r="P43" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="Q43" s="192"/>
-      <c r="R43" s="192"/>
-      <c r="S43" s="192"/>
-      <c r="T43" s="192"/>
-      <c r="U43" s="192"/>
-      <c r="V43" s="192"/>
-      <c r="W43" s="192"/>
-      <c r="X43" s="192"/>
-      <c r="Y43" s="192"/>
-      <c r="Z43" s="193"/>
-      <c r="AA43" s="193"/>
-      <c r="AB43" s="193"/>
-      <c r="AC43" s="193"/>
-      <c r="AD43" s="193"/>
-      <c r="AE43" s="193"/>
-      <c r="AF43" s="193"/>
-      <c r="AG43" s="194"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="161"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="162"/>
+      <c r="AB43" s="162"/>
+      <c r="AC43" s="162"/>
+      <c r="AD43" s="162"/>
+      <c r="AE43" s="162"/>
+      <c r="AF43" s="162"/>
+      <c r="AG43" s="163"/>
     </row>
     <row r="44" spans="1:73" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A44" s="147"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
-      <c r="N44" s="148"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="142" t="s">
+      <c r="A44" s="265"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="266"/>
+      <c r="H44" s="266"/>
+      <c r="I44" s="266"/>
+      <c r="J44" s="266"/>
+      <c r="K44" s="266"/>
+      <c r="L44" s="266"/>
+      <c r="M44" s="266"/>
+      <c r="N44" s="266"/>
+      <c r="O44" s="266"/>
+      <c r="P44" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="Q44" s="143"/>
-      <c r="R44" s="143"/>
-      <c r="S44" s="143"/>
-      <c r="T44" s="143"/>
-      <c r="U44" s="143"/>
-      <c r="V44" s="143"/>
-      <c r="W44" s="143"/>
-      <c r="X44" s="143"/>
-      <c r="Y44" s="143"/>
-      <c r="Z44" s="143"/>
-      <c r="AA44" s="143"/>
-      <c r="AB44" s="143"/>
-      <c r="AC44" s="143"/>
-      <c r="AD44" s="143"/>
-      <c r="AE44" s="143"/>
-      <c r="AF44" s="143"/>
-      <c r="AG44" s="144"/>
+      <c r="Q44" s="261"/>
+      <c r="R44" s="261"/>
+      <c r="S44" s="261"/>
+      <c r="T44" s="261"/>
+      <c r="U44" s="261"/>
+      <c r="V44" s="261"/>
+      <c r="W44" s="261"/>
+      <c r="X44" s="261"/>
+      <c r="Y44" s="261"/>
+      <c r="Z44" s="261"/>
+      <c r="AA44" s="261"/>
+      <c r="AB44" s="261"/>
+      <c r="AC44" s="261"/>
+      <c r="AD44" s="261"/>
+      <c r="AE44" s="261"/>
+      <c r="AF44" s="261"/>
+      <c r="AG44" s="262"/>
     </row>
     <row r="45" spans="1:73" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
@@ -6253,16 +6314,16 @@
       <c r="J45" s="60"/>
       <c r="K45" s="60"/>
       <c r="L45" s="60"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="102"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="104" t="s">
+      <c r="M45" s="313"/>
+      <c r="N45" s="313"/>
+      <c r="O45" s="314"/>
+      <c r="P45" s="315" t="s">
         <v>56</v>
       </c>
-      <c r="Q45" s="105"/>
+      <c r="Q45" s="316"/>
       <c r="R45" s="58">
         <f>SUM(R13:R42)</f>
-        <v>159.80000000000001</v>
+        <v>145</v>
       </c>
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
@@ -6328,17 +6389,17 @@
       <c r="X46" s="54"/>
       <c r="Y46" s="55"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="267" t="s">
+      <c r="AA46" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="AB46" s="267"/>
-      <c r="AC46" s="267"/>
-      <c r="AD46" s="269" t="s">
+      <c r="AB46" s="171"/>
+      <c r="AC46" s="171"/>
+      <c r="AD46" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AE46" s="269"/>
-      <c r="AF46" s="269"/>
-      <c r="AG46" s="269"/>
+      <c r="AE46" s="115"/>
+      <c r="AF46" s="115"/>
+      <c r="AG46" s="115"/>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
@@ -6361,59 +6422,59 @@
       <c r="BA46" s="4"/>
     </row>
     <row r="47" spans="1:73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="176" t="s">
+      <c r="A47" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="186" t="s">
+      <c r="B47" s="252"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="178"/>
-      <c r="G47" s="185" t="s">
+      <c r="F47" s="205"/>
+      <c r="G47" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="188" t="s">
+      <c r="H47" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="186" t="s">
+      <c r="I47" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="190"/>
+      <c r="J47" s="210"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="210"/>
+      <c r="N47" s="210"/>
       <c r="O47" s="43"/>
-      <c r="P47" s="182" t="s">
+      <c r="P47" s="254" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="149" t="s">
+      <c r="Q47" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="149" t="s">
+      <c r="R47" s="255" t="s">
         <v>24</v>
       </c>
-      <c r="S47" s="185" t="s">
+      <c r="S47" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="T47" s="186" t="s">
+      <c r="T47" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="U47" s="190"/>
-      <c r="V47" s="190"/>
-      <c r="W47" s="190"/>
-      <c r="X47" s="190"/>
-      <c r="Y47" s="234"/>
+      <c r="U47" s="210"/>
+      <c r="V47" s="210"/>
+      <c r="W47" s="210"/>
+      <c r="X47" s="210"/>
+      <c r="Y47" s="317"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="180"/>
-      <c r="AB47" s="180"/>
-      <c r="AC47" s="180"/>
-      <c r="AD47" s="270"/>
-      <c r="AE47" s="270"/>
-      <c r="AF47" s="270"/>
-      <c r="AG47" s="270"/>
+      <c r="AA47" s="172"/>
+      <c r="AB47" s="172"/>
+      <c r="AC47" s="172"/>
+      <c r="AD47" s="116"/>
+      <c r="AE47" s="116"/>
+      <c r="AF47" s="116"/>
+      <c r="AG47" s="116"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
@@ -6436,14 +6497,14 @@
       <c r="BA47" s="4"/>
     </row>
     <row r="48" spans="1:73" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="180"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="189"/>
+      <c r="A48" s="253"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="209"/>
       <c r="I48" s="44" t="s">
         <v>13</v>
       </c>
@@ -6465,10 +6526,10 @@
       <c r="O48" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P48" s="183"/>
-      <c r="Q48" s="184"/>
-      <c r="R48" s="150"/>
-      <c r="S48" s="183"/>
+      <c r="P48" s="170"/>
+      <c r="Q48" s="256"/>
+      <c r="R48" s="267"/>
+      <c r="S48" s="170"/>
       <c r="T48" s="44" t="s">
         <v>13</v>
       </c>
@@ -6488,13 +6549,13 @@
         <v>17</v>
       </c>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="268"/>
-      <c r="AB48" s="268"/>
-      <c r="AC48" s="268"/>
-      <c r="AD48" s="270"/>
-      <c r="AE48" s="270"/>
-      <c r="AF48" s="270"/>
-      <c r="AG48" s="270"/>
+      <c r="AA48" s="173"/>
+      <c r="AB48" s="173"/>
+      <c r="AC48" s="173"/>
+      <c r="AD48" s="116"/>
+      <c r="AE48" s="116"/>
+      <c r="AF48" s="116"/>
+      <c r="AG48" s="116"/>
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
@@ -6517,25 +6578,25 @@
       <c r="BA48" s="4"/>
     </row>
     <row r="49" spans="1:53" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="107"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="110"/>
+      <c r="A49" s="234"/>
+      <c r="B49" s="234"/>
+      <c r="C49" s="234"/>
+      <c r="D49" s="234"/>
+      <c r="E49" s="234"/>
+      <c r="F49" s="234"/>
+      <c r="G49" s="234"/>
+      <c r="H49" s="299"/>
+      <c r="I49" s="299"/>
+      <c r="J49" s="299"/>
+      <c r="K49" s="299"/>
+      <c r="L49" s="299"/>
+      <c r="M49" s="299"/>
+      <c r="N49" s="299"/>
+      <c r="O49" s="299"/>
+      <c r="P49" s="234"/>
+      <c r="Q49" s="311"/>
+      <c r="R49" s="312"/>
+      <c r="S49" s="186"/>
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76">
@@ -6551,14 +6612,14 @@
         <v>4</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="244"/>
-      <c r="AB49" s="244"/>
-      <c r="AC49" s="266"/>
-      <c r="AD49" s="265" t="s">
+      <c r="AA49" s="117"/>
+      <c r="AB49" s="117"/>
+      <c r="AC49" s="118"/>
+      <c r="AD49" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="AE49" s="115"/>
-      <c r="AF49" s="116"/>
+      <c r="AE49" s="120"/>
+      <c r="AF49" s="121"/>
       <c r="AG49" s="20"/>
       <c r="AH49" s="7"/>
       <c r="AP49" s="4"/>
@@ -6575,25 +6636,25 @@
       <c r="BA49" s="4"/>
     </row>
     <row r="50" spans="1:53" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="107"/>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="110"/>
+      <c r="A50" s="234"/>
+      <c r="B50" s="234"/>
+      <c r="C50" s="234"/>
+      <c r="D50" s="234"/>
+      <c r="E50" s="234"/>
+      <c r="F50" s="234"/>
+      <c r="G50" s="234"/>
+      <c r="H50" s="299"/>
+      <c r="I50" s="299"/>
+      <c r="J50" s="299"/>
+      <c r="K50" s="299"/>
+      <c r="L50" s="299"/>
+      <c r="M50" s="299"/>
+      <c r="N50" s="299"/>
+      <c r="O50" s="299"/>
+      <c r="P50" s="234"/>
+      <c r="Q50" s="311"/>
+      <c r="R50" s="312"/>
+      <c r="S50" s="186"/>
       <c r="T50" s="77">
         <v>6</v>
       </c>
@@ -6613,9 +6674,9 @@
         <v>11</v>
       </c>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="244"/>
-      <c r="AB50" s="244"/>
-      <c r="AC50" s="266"/>
+      <c r="AA50" s="117"/>
+      <c r="AB50" s="117"/>
+      <c r="AC50" s="118"/>
       <c r="AD50" s="22" t="s">
         <v>49</v>
       </c>
@@ -6641,25 +6702,25 @@
       <c r="BA50" s="4"/>
     </row>
     <row r="51" spans="1:53" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="106"/>
-      <c r="P51" s="107"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="110"/>
+      <c r="A51" s="234"/>
+      <c r="B51" s="234"/>
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="299"/>
+      <c r="I51" s="299"/>
+      <c r="J51" s="299"/>
+      <c r="K51" s="299"/>
+      <c r="L51" s="299"/>
+      <c r="M51" s="299"/>
+      <c r="N51" s="299"/>
+      <c r="O51" s="299"/>
+      <c r="P51" s="234"/>
+      <c r="Q51" s="311"/>
+      <c r="R51" s="312"/>
+      <c r="S51" s="186"/>
       <c r="T51" s="77">
         <v>13</v>
       </c>
@@ -6679,16 +6740,16 @@
         <v>18</v>
       </c>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="244"/>
-      <c r="AB51" s="244"/>
-      <c r="AC51" s="266"/>
+      <c r="AA51" s="117"/>
+      <c r="AB51" s="117"/>
+      <c r="AC51" s="118"/>
       <c r="AD51" s="25"/>
       <c r="AE51" s="26"/>
       <c r="AF51" s="27">
         <f>AD51*AE51</f>
         <v>0</v>
       </c>
-      <c r="AG51" s="113">
+      <c r="AG51" s="122">
         <f>AF51+AF52</f>
         <v>0</v>
       </c>
@@ -6707,25 +6768,25 @@
       <c r="BA51" s="4"/>
     </row>
     <row r="52" spans="1:53" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="106"/>
-      <c r="P52" s="107"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="110"/>
+      <c r="A52" s="234"/>
+      <c r="B52" s="234"/>
+      <c r="C52" s="234"/>
+      <c r="D52" s="234"/>
+      <c r="E52" s="234"/>
+      <c r="F52" s="234"/>
+      <c r="G52" s="234"/>
+      <c r="H52" s="299"/>
+      <c r="I52" s="299"/>
+      <c r="J52" s="299"/>
+      <c r="K52" s="299"/>
+      <c r="L52" s="299"/>
+      <c r="M52" s="299"/>
+      <c r="N52" s="299"/>
+      <c r="O52" s="299"/>
+      <c r="P52" s="234"/>
+      <c r="Q52" s="311"/>
+      <c r="R52" s="312"/>
+      <c r="S52" s="186"/>
       <c r="T52" s="76">
         <v>20</v>
       </c>
@@ -6745,16 +6806,16 @@
         <v>25</v>
       </c>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="244"/>
-      <c r="AB52" s="244"/>
-      <c r="AC52" s="266"/>
+      <c r="AA52" s="117"/>
+      <c r="AB52" s="117"/>
+      <c r="AC52" s="118"/>
       <c r="AD52" s="25"/>
       <c r="AE52" s="26"/>
       <c r="AF52" s="27">
         <f>AD52*AE52</f>
         <v>0</v>
       </c>
-      <c r="AG52" s="114"/>
+      <c r="AG52" s="123"/>
       <c r="AH52" s="7"/>
       <c r="AP52" s="4"/>
       <c r="AQ52" s="4"/>
@@ -6770,25 +6831,25 @@
       <c r="BA52" s="4"/>
     </row>
     <row r="53" spans="1:53" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="107"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="110"/>
+      <c r="A53" s="234"/>
+      <c r="B53" s="234"/>
+      <c r="C53" s="234"/>
+      <c r="D53" s="234"/>
+      <c r="E53" s="234"/>
+      <c r="F53" s="234"/>
+      <c r="G53" s="234"/>
+      <c r="H53" s="299"/>
+      <c r="I53" s="299"/>
+      <c r="J53" s="299"/>
+      <c r="K53" s="299"/>
+      <c r="L53" s="299"/>
+      <c r="M53" s="299"/>
+      <c r="N53" s="299"/>
+      <c r="O53" s="299"/>
+      <c r="P53" s="234"/>
+      <c r="Q53" s="311"/>
+      <c r="R53" s="312"/>
+      <c r="S53" s="186"/>
       <c r="T53" s="76">
         <v>27</v>
       </c>
@@ -6804,9 +6865,9 @@
       <c r="X53" s="76"/>
       <c r="Y53" s="76"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="244"/>
-      <c r="AB53" s="244"/>
-      <c r="AC53" s="266"/>
+      <c r="AA53" s="117"/>
+      <c r="AB53" s="117"/>
+      <c r="AC53" s="118"/>
       <c r="AD53" s="39"/>
       <c r="AE53" s="40"/>
       <c r="AF53" s="40">
@@ -6829,25 +6890,25 @@
       <c r="BA53" s="4"/>
     </row>
     <row r="54" spans="1:53" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="171"/>
-      <c r="B54" s="171"/>
-      <c r="C54" s="171"/>
-      <c r="D54" s="171"/>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
-      <c r="G54" s="171"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="173" t="s">
+      <c r="A54" s="246"/>
+      <c r="B54" s="246"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="246"/>
+      <c r="F54" s="246"/>
+      <c r="G54" s="246"/>
+      <c r="H54" s="247"/>
+      <c r="I54" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="174"/>
-      <c r="K54" s="174"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="174"/>
-      <c r="O54" s="174"/>
-      <c r="P54" s="174"/>
-      <c r="Q54" s="175"/>
+      <c r="J54" s="249"/>
+      <c r="K54" s="249"/>
+      <c r="L54" s="249"/>
+      <c r="M54" s="249"/>
+      <c r="N54" s="249"/>
+      <c r="O54" s="249"/>
+      <c r="P54" s="249"/>
+      <c r="Q54" s="250"/>
       <c r="S54" s="58">
         <f>SUM(S49:S53)</f>
         <v>0</v>
@@ -28406,105 +28467,67 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="176">
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="Q19:Q24"/>
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="G19:H24"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="AA46:AC48"/>
-    <mergeCell ref="AD46:AG48"/>
-    <mergeCell ref="AA49:AC53"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG51:AG52"/>
-    <mergeCell ref="AA10:AC11"/>
-    <mergeCell ref="AA13:AC18"/>
-    <mergeCell ref="AA26:AC30"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AA32:AC36"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD10:AG11"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AA38:AC42"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG27:AG28"/>
+  <mergeCells count="177">
+    <mergeCell ref="Z38:Z42"/>
+    <mergeCell ref="N49:N53"/>
+    <mergeCell ref="O49:O53"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="Q49:Q53"/>
+    <mergeCell ref="R49:R53"/>
+    <mergeCell ref="S49:S53"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:Q45"/>
     <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:H30"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="A49:D53"/>
+    <mergeCell ref="E49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="M49:M53"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="T10:Y11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G13:H18"/>
+    <mergeCell ref="Q13:Q18"/>
+    <mergeCell ref="R13:R18"/>
+    <mergeCell ref="S13:S18"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="R10:R11"/>
     <mergeCell ref="I13:I18"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="N31:N36"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
     <mergeCell ref="G31:H36"/>
     <mergeCell ref="I31:I36"/>
     <mergeCell ref="J31:J36"/>
-    <mergeCell ref="O31:O36"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="Q31:Q36"/>
-    <mergeCell ref="R31:R36"/>
-    <mergeCell ref="S31:S36"/>
-    <mergeCell ref="O37:O42"/>
-    <mergeCell ref="P37:P42"/>
-    <mergeCell ref="Q37:Q42"/>
-    <mergeCell ref="R37:R42"/>
-    <mergeCell ref="S37:S42"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D3:F7"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:Y7"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="P43:AG43"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="X4:Y6"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D2:Y2"/>
-    <mergeCell ref="P13:P18"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N13:N18"/>
     <mergeCell ref="O25:O30"/>
     <mergeCell ref="P25:P30"/>
     <mergeCell ref="Q25:Q30"/>
@@ -28529,60 +28552,99 @@
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="K31:K36"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="N31:N36"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="T10:Y11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G13:H18"/>
-    <mergeCell ref="Q13:Q18"/>
-    <mergeCell ref="R13:R18"/>
-    <mergeCell ref="S13:S18"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="A49:D53"/>
-    <mergeCell ref="E49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="M49:M53"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="X4:Y6"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D2:Y2"/>
+    <mergeCell ref="P13:P18"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="P4:W4"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:Y7"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="AA46:AC48"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="S19:S24"/>
+    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="R31:R36"/>
+    <mergeCell ref="S31:S36"/>
+    <mergeCell ref="O37:O42"/>
+    <mergeCell ref="P37:P42"/>
+    <mergeCell ref="Q37:Q42"/>
+    <mergeCell ref="R37:R42"/>
+    <mergeCell ref="S37:S42"/>
+    <mergeCell ref="AD46:AG48"/>
+    <mergeCell ref="AA49:AC53"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG51:AG52"/>
+    <mergeCell ref="AA10:AC11"/>
+    <mergeCell ref="AA13:AC18"/>
+    <mergeCell ref="AA26:AC30"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AA32:AC36"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD10:AG11"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AA38:AC42"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG27:AG28"/>
     <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="N49:N53"/>
-    <mergeCell ref="O49:O53"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="Q49:Q53"/>
-    <mergeCell ref="R49:R53"/>
-    <mergeCell ref="S49:S53"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:H30"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="P43:AG43"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G19:H24"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F85">
